--- a/tool/e2e-tests/test-packs/Full Prescriber Volume Pack.xlsx
+++ b/tool/e2e-tests/test-packs/Full Prescriber Volume Pack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clients\NHS\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.robinson/Documents/electronic-prescription-service-api/tool/e2e-tests/test-packs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349D53A-DC25-4AD1-BEF1-33B72140CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CCA92E-8BB8-0E4C-9012-0BCE2E74FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="2" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
+    <workbookView xWindow="48020" yWindow="4580" windowWidth="23240" windowHeight="14000" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Patients" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$R$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$T$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8253" uniqueCount="3647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="3649">
   <si>
     <t>Quantity</t>
   </si>
@@ -11032,6 +11032,12 @@
   </si>
   <si>
     <t>DN17 1HA</t>
+  </si>
+  <si>
+    <t>Controlled Drug Quantity</t>
+  </si>
+  <si>
+    <t>Controlled Drug Schedule</t>
   </si>
 </sst>
 </file>
@@ -11521,19 +11527,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -11546,34 +11552,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}">
-  <dimension ref="A1:R215"/>
+  <dimension ref="A1:T215"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.76953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.58984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.58984375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="19" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="121.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1328125" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="19.08984375" customWidth="1"/>
-    <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="58.58984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="55.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="121.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="58.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="55.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>338</v>
       </c>
@@ -11619,17 +11625,23 @@
       <c r="O1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11664,12 +11676,12 @@
         <v>11111111</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11704,9 +11716,9 @@
         <v>11111111</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11741,12 +11753,12 @@
         <v>11111111</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11781,12 +11793,12 @@
         <v>11111111</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2"/>
+      <c r="T5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11821,15 +11833,15 @@
         <v>11111111</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="2"/>
+      <c r="S6" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11864,12 +11876,12 @@
         <v>11111111</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11906,12 +11918,12 @@
       <c r="L8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2"/>
+      <c r="T8" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11946,9 +11958,9 @@
         <v>11111111</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11983,12 +11995,12 @@
         <v>11111111</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="2"/>
+      <c r="S10" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12023,9 +12035,9 @@
         <v>11111111</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12060,9 +12072,9 @@
         <v>11111111</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12099,12 +12111,12 @@
       <c r="L13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2"/>
+      <c r="T13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12139,15 +12151,15 @@
         <v>11111111</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12182,9 +12194,9 @@
         <v>11111111</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12219,9 +12231,9 @@
         <v>11111111</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12256,12 +12268,12 @@
         <v>11111111</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="2"/>
+      <c r="S17" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12296,12 +12308,12 @@
         <v>11111111</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="2"/>
+      <c r="T18" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:20" ht="43" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12336,12 +12348,12 @@
         <v>11111111</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="2"/>
+      <c r="S19" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12376,15 +12388,15 @@
         <v>11111111</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="2"/>
+      <c r="S20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12419,9 +12431,9 @@
         <v>11111111</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12456,12 +12468,12 @@
         <v>11111111</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="2"/>
+      <c r="T22" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12496,12 +12508,12 @@
         <v>11111111</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="2"/>
+      <c r="S23" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12536,12 +12548,12 @@
         <v>11111111</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="2"/>
+      <c r="T24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12576,15 +12588,15 @@
         <v>11111111</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3" t="s">
+      <c r="R25" s="2"/>
+      <c r="S25" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12619,12 +12631,12 @@
         <v>11111111</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="2"/>
+      <c r="T26" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12659,12 +12671,12 @@
         <v>11111111</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="2"/>
+      <c r="T27" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12699,12 +12711,12 @@
         <v>11111111</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="2"/>
+      <c r="S28" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12739,12 +12751,12 @@
         <v>11111111</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="2"/>
+      <c r="T29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12779,9 +12791,9 @@
         <v>11111111</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12816,12 +12828,12 @@
         <v>11111111</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="2"/>
+      <c r="S31" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12856,9 +12868,9 @@
         <v>11111111</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12897,7 +12909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12932,9 +12944,9 @@
         <v>11111111</v>
       </c>
       <c r="L34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" ht="43" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12972,11 +12984,11 @@
       <c r="M35" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13015,7 +13027,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13049,11 +13061,11 @@
       <c r="K37" s="2">
         <v>11111111</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13088,15 +13100,15 @@
         <v>11111111</v>
       </c>
       <c r="L38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13131,15 +13143,15 @@
         <v>11111111</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="2"/>
+      <c r="S39" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13174,12 +13186,12 @@
         <v>11111111</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="2"/>
+      <c r="T40" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13214,9 +13226,9 @@
         <v>11111111</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13253,7 +13265,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13288,12 +13300,12 @@
         <v>11111111</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13328,15 +13340,15 @@
         <v>11111111</v>
       </c>
       <c r="L44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="2"/>
+      <c r="S44" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13371,12 +13383,12 @@
         <v>11111111</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="2"/>
+      <c r="T45" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13413,9 +13425,9 @@
       <c r="L46" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13450,12 +13462,12 @@
         <v>11111111</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13490,12 +13502,12 @@
         <v>11111111</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="2"/>
+      <c r="S48" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13530,15 +13542,15 @@
         <v>11111111</v>
       </c>
       <c r="L49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="2"/>
+      <c r="S49" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13576,11 +13588,11 @@
       <c r="M50" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13615,9 +13627,9 @@
         <v>11111111</v>
       </c>
       <c r="L51" s="2"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13652,9 +13664,9 @@
         <v>11111111</v>
       </c>
       <c r="L52" s="2"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13689,12 +13701,12 @@
         <v>11111111</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="2"/>
+      <c r="S53" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13729,9 +13741,9 @@
         <v>11111111</v>
       </c>
       <c r="L54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13768,12 +13780,12 @@
       <c r="L55" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="P55" s="2"/>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="2"/>
+      <c r="T55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13807,12 +13819,12 @@
       <c r="K56" s="2">
         <v>11111111</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="3" t="s">
+      <c r="R56" s="2"/>
+      <c r="S56" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:20" ht="43" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13852,14 +13864,14 @@
       <c r="M57" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="R57" s="10" t="s">
+      <c r="T57" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13894,12 +13906,12 @@
         <v>11111111</v>
       </c>
       <c r="L58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="2"/>
+      <c r="S58" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13934,9 +13946,9 @@
         <v>11111111</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13971,15 +13983,15 @@
         <v>11111111</v>
       </c>
       <c r="L60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="3" t="s">
+      <c r="R60" s="2"/>
+      <c r="S60" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14014,9 +14026,9 @@
         <v>11111111</v>
       </c>
       <c r="L61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -14051,9 +14063,9 @@
         <v>11111111</v>
       </c>
       <c r="L62" s="2"/>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14088,9 +14100,9 @@
         <v>11111111</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14125,9 +14137,9 @@
         <v>11111111</v>
       </c>
       <c r="L64" s="2"/>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14162,12 +14174,12 @@
         <v>11111111</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="R65" s="3" t="s">
+      <c r="R65" s="2"/>
+      <c r="T65" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14205,11 +14217,11 @@
       <c r="M66" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="R66" s="3" t="s">
+      <c r="T66" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14247,11 +14259,11 @@
       <c r="M67" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="R67" s="3" t="s">
+      <c r="T67" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14286,9 +14298,9 @@
         <v>11111111</v>
       </c>
       <c r="L68" s="2"/>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14323,9 +14335,9 @@
         <v>11111111</v>
       </c>
       <c r="L69" s="2"/>
-      <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14360,9 +14372,9 @@
         <v>11111111</v>
       </c>
       <c r="L70" s="2"/>
-      <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14397,12 +14409,12 @@
         <v>11111111</v>
       </c>
       <c r="L71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="3" t="s">
+      <c r="R71" s="2"/>
+      <c r="S71" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14437,9 +14449,9 @@
         <v>11111111</v>
       </c>
       <c r="L72" s="2"/>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14480,7 +14492,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14517,9 +14529,9 @@
       <c r="L74" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14554,12 +14566,12 @@
         <v>11111111</v>
       </c>
       <c r="L75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="R75" s="3" t="s">
+      <c r="R75" s="2"/>
+      <c r="T75" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14594,9 +14606,9 @@
         <v>11111111</v>
       </c>
       <c r="L76" s="2"/>
-      <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14631,12 +14643,12 @@
         <v>11111111</v>
       </c>
       <c r="L77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="3" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14671,9 +14683,9 @@
         <v>11111111</v>
       </c>
       <c r="L78" s="2"/>
-      <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14708,9 +14720,9 @@
         <v>11111111</v>
       </c>
       <c r="L79" s="2"/>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14745,9 +14757,9 @@
         <v>11111111</v>
       </c>
       <c r="L80" s="2"/>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14782,12 +14794,12 @@
         <v>11111111</v>
       </c>
       <c r="L81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="3" t="s">
+      <c r="R81" s="2"/>
+      <c r="S81" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14822,9 +14834,9 @@
         <v>11111111</v>
       </c>
       <c r="L82" s="2"/>
-      <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14859,9 +14871,9 @@
         <v>11111111</v>
       </c>
       <c r="L83" s="2"/>
-      <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R83" s="2"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14896,9 +14908,9 @@
         <v>11111111</v>
       </c>
       <c r="L84" s="2"/>
-      <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14933,15 +14945,15 @@
         <v>11111111</v>
       </c>
       <c r="L85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="R85" s="3" t="s">
+      <c r="T85" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14976,9 +14988,9 @@
         <v>11111111</v>
       </c>
       <c r="L86" s="2"/>
-      <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15013,12 +15025,12 @@
         <v>11111111</v>
       </c>
       <c r="L87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="R87" s="3" t="s">
+      <c r="R87" s="2"/>
+      <c r="T87" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15053,9 +15065,9 @@
         <v>11111111</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="P88" s="2"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15090,12 +15102,12 @@
         <v>11111111</v>
       </c>
       <c r="L89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="R89" s="3" t="s">
+      <c r="R89" s="2"/>
+      <c r="T89" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15130,12 +15142,12 @@
         <v>11111111</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="3" t="s">
+      <c r="R90" s="2"/>
+      <c r="S90" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15170,12 +15182,12 @@
         <v>11111111</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="3" t="s">
+      <c r="R91" s="2"/>
+      <c r="S91" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15210,9 +15222,9 @@
         <v>11111111</v>
       </c>
       <c r="L92" s="2"/>
-      <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15247,9 +15259,9 @@
         <v>11111111</v>
       </c>
       <c r="L93" s="2"/>
-      <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R93" s="2"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15284,9 +15296,9 @@
         <v>11111111</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="P94" s="2"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R94" s="2"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15321,9 +15333,9 @@
         <v>11111111</v>
       </c>
       <c r="L95" s="2"/>
-      <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R95" s="2"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15358,9 +15370,9 @@
         <v>11111111</v>
       </c>
       <c r="L96" s="2"/>
-      <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R96" s="2"/>
+    </row>
+    <row r="97" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15395,12 +15407,12 @@
         <v>11111111</v>
       </c>
       <c r="L97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="3" t="s">
+      <c r="R97" s="2"/>
+      <c r="S97" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15435,12 +15447,12 @@
         <v>11111111</v>
       </c>
       <c r="L98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="R98" s="3" t="s">
+      <c r="R98" s="2"/>
+      <c r="T98" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15475,9 +15487,9 @@
         <v>11111111</v>
       </c>
       <c r="L99" s="2"/>
-      <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R99" s="2"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15512,9 +15524,9 @@
         <v>11111111</v>
       </c>
       <c r="L100" s="2"/>
-      <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R100" s="2"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15549,12 +15561,12 @@
         <v>11111111</v>
       </c>
       <c r="L101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="3" t="s">
+      <c r="R101" s="2"/>
+      <c r="S101" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -15588,11 +15600,11 @@
       <c r="K102" s="2">
         <v>11111111</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15630,7 +15642,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15665,9 +15677,9 @@
         <v>11111111</v>
       </c>
       <c r="L104" s="2"/>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R104" s="2"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15702,9 +15714,9 @@
         <v>11111111</v>
       </c>
       <c r="L105" s="2"/>
-      <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R105" s="2"/>
+    </row>
+    <row r="106" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15742,7 +15754,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15777,9 +15789,9 @@
         <v>11111111</v>
       </c>
       <c r="L107" s="2"/>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R107" s="2"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15813,11 +15825,11 @@
       <c r="K108" s="2">
         <v>11111111</v>
       </c>
-      <c r="R108" s="3" t="s">
+      <c r="T108" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15852,9 +15864,9 @@
         <v>11111111</v>
       </c>
       <c r="L109" s="2"/>
-      <c r="P109" s="2"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R109" s="2"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15889,12 +15901,12 @@
         <v>11111111</v>
       </c>
       <c r="L110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="3" t="s">
+      <c r="R110" s="2"/>
+      <c r="S110" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15929,12 +15941,12 @@
         <v>11111111</v>
       </c>
       <c r="L111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="3" t="s">
+      <c r="R111" s="2"/>
+      <c r="S111" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15969,9 +15981,9 @@
         <v>11111111</v>
       </c>
       <c r="L112" s="2"/>
-      <c r="P112" s="2"/>
-    </row>
-    <row r="113" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R112" s="2"/>
+    </row>
+    <row r="113" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16006,12 +16018,12 @@
         <v>11111111</v>
       </c>
       <c r="L113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="3" t="s">
+      <c r="R113" s="2"/>
+      <c r="S113" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16045,11 +16057,11 @@
       <c r="K114" s="2">
         <v>11111111</v>
       </c>
-      <c r="Q114" s="3" t="s">
+      <c r="S114" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16084,12 +16096,12 @@
         <v>11111111</v>
       </c>
       <c r="L115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="3" t="s">
+      <c r="R115" s="2"/>
+      <c r="S115" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16124,12 +16136,12 @@
         <v>11111111</v>
       </c>
       <c r="L116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="3" t="s">
+      <c r="R116" s="2"/>
+      <c r="S116" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16164,12 +16176,12 @@
         <v>11111111</v>
       </c>
       <c r="L117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="3" t="s">
+      <c r="R117" s="2"/>
+      <c r="S117" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16207,14 +16219,14 @@
       <c r="M118" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="Q118" s="3" t="s">
+      <c r="S118" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R118" s="3" t="s">
+      <c r="T118" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16249,12 +16261,12 @@
         <v>11111111</v>
       </c>
       <c r="L119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="3" t="s">
+      <c r="R119" s="2"/>
+      <c r="S119" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16289,12 +16301,12 @@
         <v>11111111</v>
       </c>
       <c r="L120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="R120" s="3" t="s">
+      <c r="R120" s="3"/>
+      <c r="T120" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16328,11 +16340,11 @@
       <c r="K121" s="2">
         <v>11111111</v>
       </c>
-      <c r="R121" s="3" t="s">
+      <c r="T121" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16367,9 +16379,9 @@
         <v>11111111</v>
       </c>
       <c r="L122" s="2"/>
-      <c r="P122" s="2"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R122" s="2"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16404,12 +16416,12 @@
         <v>11111111</v>
       </c>
       <c r="L123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="3" t="s">
+      <c r="R123" s="2"/>
+      <c r="S123" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16444,12 +16456,12 @@
         <v>11111111</v>
       </c>
       <c r="L124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="3" t="s">
+      <c r="R124" s="2"/>
+      <c r="S124" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16484,9 +16496,9 @@
         <v>11111111</v>
       </c>
       <c r="L125" s="2"/>
-      <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R125" s="2"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16521,9 +16533,9 @@
         <v>11111111</v>
       </c>
       <c r="L126" s="2"/>
-      <c r="P126" s="2"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R126" s="2"/>
+    </row>
+    <row r="127" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16561,11 +16573,11 @@
       <c r="M127" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="Q127" s="3" t="s">
+      <c r="S127" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16600,12 +16612,12 @@
         <v>11111111</v>
       </c>
       <c r="L128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="3" t="s">
+      <c r="R128" s="2"/>
+      <c r="S128" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16642,11 +16654,11 @@
       <c r="M129" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="R129" s="3" t="s">
+      <c r="T129" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -16684,11 +16696,11 @@
       <c r="M130" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="R130" s="3" t="s">
+      <c r="T130" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -16723,12 +16735,12 @@
         <v>11111111</v>
       </c>
       <c r="L131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="R131" s="3" t="s">
+      <c r="R131" s="2"/>
+      <c r="T131" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -16763,9 +16775,9 @@
         <v>11111111</v>
       </c>
       <c r="L132" s="2"/>
-      <c r="P132" s="2"/>
-    </row>
-    <row r="133" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R132" s="2"/>
+    </row>
+    <row r="133" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -16800,12 +16812,12 @@
         <v>11111111</v>
       </c>
       <c r="L133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="R133" s="3" t="s">
+      <c r="R133" s="2"/>
+      <c r="T133" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -16840,12 +16852,12 @@
         <v>11111111</v>
       </c>
       <c r="L134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="R134" s="3" t="s">
+      <c r="R134" s="2"/>
+      <c r="T134" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -16880,12 +16892,12 @@
         <v>11111111</v>
       </c>
       <c r="L135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="R135" s="3" t="s">
+      <c r="R135" s="2"/>
+      <c r="T135" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16920,12 +16932,12 @@
         <v>11111111</v>
       </c>
       <c r="L136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="R136" s="3" t="s">
+      <c r="R136" s="2"/>
+      <c r="T136" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16960,12 +16972,12 @@
         <v>11111111</v>
       </c>
       <c r="L137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="3" t="s">
+      <c r="R137" s="2"/>
+      <c r="S137" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -17000,12 +17012,12 @@
         <v>11111111</v>
       </c>
       <c r="L138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="R138" s="3" t="s">
+      <c r="R138" s="2"/>
+      <c r="T138" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -17043,11 +17055,11 @@
       <c r="M139" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="Q139" s="3" t="s">
+      <c r="S139" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -17082,9 +17094,9 @@
         <v>11111111</v>
       </c>
       <c r="L140" s="2"/>
-      <c r="P140" s="2"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R140" s="2"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -17119,12 +17131,12 @@
         <v>11111111</v>
       </c>
       <c r="L141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="3" t="s">
+      <c r="R141" s="2"/>
+      <c r="S141" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -17159,12 +17171,12 @@
         <v>11111111</v>
       </c>
       <c r="L142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="R142" s="3" t="s">
+      <c r="R142" s="2"/>
+      <c r="T142" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -17199,12 +17211,12 @@
         <v>11111111</v>
       </c>
       <c r="L143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="3" t="s">
+      <c r="R143" s="2"/>
+      <c r="S143" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -17238,11 +17250,11 @@
       <c r="K144" s="2">
         <v>11111111</v>
       </c>
-      <c r="R144" s="3" t="s">
+      <c r="T144" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="293.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:20" ht="293" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -17277,12 +17289,12 @@
         <v>11111111</v>
       </c>
       <c r="L145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="R145" s="3" t="s">
+      <c r="R145" s="2"/>
+      <c r="T145" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17317,9 +17329,9 @@
         <v>11111111</v>
       </c>
       <c r="L146" s="2"/>
-      <c r="P146" s="2"/>
-    </row>
-    <row r="147" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+      <c r="R146" s="2"/>
+    </row>
+    <row r="147" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17356,15 +17368,15 @@
       <c r="L147" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P147" s="3"/>
-      <c r="Q147" s="3" t="s">
+      <c r="R147" s="3"/>
+      <c r="S147" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="R147" s="3" t="s">
+      <c r="T147" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17399,9 +17411,9 @@
         <v>11111111</v>
       </c>
       <c r="L148" s="2"/>
-      <c r="P148" s="2"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R148" s="2"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17436,12 +17448,12 @@
         <v>11111111</v>
       </c>
       <c r="L149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="R149" s="3" t="s">
+      <c r="R149" s="2"/>
+      <c r="T149" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17476,9 +17488,9 @@
         <v>11111111</v>
       </c>
       <c r="L150" s="2"/>
-      <c r="P150" s="2"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R150" s="2"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17513,12 +17525,12 @@
         <v>11111111</v>
       </c>
       <c r="L151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="3" t="s">
+      <c r="R151" s="2"/>
+      <c r="S151" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17553,12 +17565,12 @@
         <v>11111111</v>
       </c>
       <c r="L152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="3" t="s">
+      <c r="R152" s="2"/>
+      <c r="S152" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17593,12 +17605,12 @@
         <v>11111111</v>
       </c>
       <c r="L153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="R153" s="3" t="s">
+      <c r="R153" s="2"/>
+      <c r="T153" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17633,9 +17645,9 @@
         <v>11111111</v>
       </c>
       <c r="L154" s="2"/>
-      <c r="P154" s="2"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R154" s="2"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17670,9 +17682,9 @@
         <v>11111111</v>
       </c>
       <c r="L155" s="2"/>
-      <c r="P155" s="2"/>
-    </row>
-    <row r="156" spans="1:18" ht="234.3" x14ac:dyDescent="0.5">
+      <c r="R155" s="2"/>
+    </row>
+    <row r="156" spans="1:20" ht="267" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17709,12 +17721,12 @@
       <c r="L156" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="P156" s="3"/>
-      <c r="R156" s="3" t="s">
+      <c r="R156" s="3"/>
+      <c r="T156" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -17749,9 +17761,9 @@
         <v>11111111</v>
       </c>
       <c r="L157" s="2"/>
-      <c r="P157" s="2"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R157" s="2"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -17786,12 +17798,12 @@
         <v>11111111</v>
       </c>
       <c r="L158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="3" t="s">
+      <c r="R158" s="2"/>
+      <c r="S158" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -17826,12 +17838,12 @@
         <v>11111111</v>
       </c>
       <c r="L159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="3" t="s">
+      <c r="R159" s="2"/>
+      <c r="S159" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17866,12 +17878,12 @@
         <v>11111111</v>
       </c>
       <c r="L160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="3" t="s">
+      <c r="R160" s="2"/>
+      <c r="S160" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17906,12 +17918,12 @@
         <v>11111111</v>
       </c>
       <c r="L161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="3" t="s">
+      <c r="R161" s="2"/>
+      <c r="S161" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17946,9 +17958,9 @@
         <v>11111111</v>
       </c>
       <c r="L162" s="2"/>
-      <c r="P162" s="2"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R162" s="2"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17983,9 +17995,9 @@
         <v>11111111</v>
       </c>
       <c r="L163" s="2"/>
-      <c r="P163" s="2"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R163" s="2"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18020,9 +18032,9 @@
         <v>11111111</v>
       </c>
       <c r="L164" s="2"/>
-      <c r="P164" s="2"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R164" s="2"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18057,9 +18069,9 @@
         <v>11111111</v>
       </c>
       <c r="L165" s="2"/>
-      <c r="P165" s="2"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R165" s="2"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18094,12 +18106,12 @@
         <v>11111111</v>
       </c>
       <c r="L166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="R166" s="3" t="s">
+      <c r="R166" s="2"/>
+      <c r="T166" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18134,12 +18146,12 @@
         <v>11111111</v>
       </c>
       <c r="L167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="R167" s="3" t="s">
+      <c r="R167" s="2"/>
+      <c r="T167" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18174,9 +18186,9 @@
         <v>11111111</v>
       </c>
       <c r="L168" s="2"/>
-      <c r="P168" s="2"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R168" s="2"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18211,9 +18223,9 @@
         <v>11111111</v>
       </c>
       <c r="L169" s="2"/>
-      <c r="P169" s="2"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R169" s="2"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -18248,12 +18260,12 @@
         <v>11111111</v>
       </c>
       <c r="L170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="3" t="s">
+      <c r="R170" s="2"/>
+      <c r="S170" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -18288,9 +18300,9 @@
         <v>11111111</v>
       </c>
       <c r="L171" s="2"/>
-      <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R171" s="2"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -18325,12 +18337,12 @@
         <v>11111111</v>
       </c>
       <c r="L172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="3" t="s">
+      <c r="R172" s="2"/>
+      <c r="S172" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -18365,9 +18377,9 @@
         <v>11111111</v>
       </c>
       <c r="L173" s="2"/>
-      <c r="P173" s="2"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R173" s="2"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -18402,12 +18414,12 @@
         <v>11111111</v>
       </c>
       <c r="L174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="R174" s="3" t="s">
+      <c r="R174" s="2"/>
+      <c r="T174" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -18442,9 +18454,9 @@
         <v>11111111</v>
       </c>
       <c r="L175" s="2"/>
-      <c r="P175" s="2"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R175" s="2"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -18479,15 +18491,15 @@
         <v>11111111</v>
       </c>
       <c r="L176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="3" t="s">
+      <c r="R176" s="2"/>
+      <c r="S176" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="R176" s="3" t="s">
+      <c r="T176" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -18522,12 +18534,12 @@
         <v>11111111</v>
       </c>
       <c r="L177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="3" t="s">
+      <c r="R177" s="2"/>
+      <c r="S177" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -18562,15 +18574,15 @@
         <v>11111111</v>
       </c>
       <c r="L178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="3" t="s">
+      <c r="R178" s="2"/>
+      <c r="S178" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R178" s="3" t="s">
+      <c r="T178" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -18604,11 +18616,11 @@
       <c r="K179" s="2">
         <v>11111111</v>
       </c>
-      <c r="Q179" s="3" t="s">
+      <c r="S179" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -18643,9 +18655,9 @@
         <v>11111111</v>
       </c>
       <c r="L180" s="2"/>
-      <c r="P180" s="2"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R180" s="2"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -18680,9 +18692,9 @@
         <v>11111111</v>
       </c>
       <c r="L181" s="2"/>
-      <c r="P181" s="2"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R181" s="2"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -18717,9 +18729,9 @@
         <v>11111111</v>
       </c>
       <c r="L182" s="2"/>
-      <c r="P182" s="2"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R182" s="2"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18754,12 +18766,12 @@
         <v>11111111</v>
       </c>
       <c r="L183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="3" t="s">
+      <c r="R183" s="2"/>
+      <c r="S183" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18794,15 +18806,15 @@
         <v>11111111</v>
       </c>
       <c r="L184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="3" t="s">
+      <c r="R184" s="2"/>
+      <c r="S184" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R184" s="3" t="s">
+      <c r="T184" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18837,9 +18849,9 @@
         <v>11111111</v>
       </c>
       <c r="L185" s="2"/>
-      <c r="P185" s="2"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R185" s="2"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18874,12 +18886,12 @@
         <v>11111111</v>
       </c>
       <c r="L186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="3" t="s">
+      <c r="R186" s="2"/>
+      <c r="S186" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18913,11 +18925,11 @@
       <c r="K187" s="2">
         <v>11111111</v>
       </c>
-      <c r="Q187" s="3" t="s">
+      <c r="S187" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18952,12 +18964,12 @@
         <v>11111111</v>
       </c>
       <c r="L188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="R188" s="3" t="s">
+      <c r="R188" s="2"/>
+      <c r="T188" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18992,9 +19004,9 @@
         <v>11111111</v>
       </c>
       <c r="L189" s="2"/>
-      <c r="P189" s="2"/>
-    </row>
-    <row r="190" spans="1:18" ht="74.400000000000006" x14ac:dyDescent="0.5">
+      <c r="R189" s="2"/>
+    </row>
+    <row r="190" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19031,12 +19043,12 @@
       <c r="L190" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P190" s="2"/>
-      <c r="R190" s="3" t="s">
+      <c r="R190" s="2"/>
+      <c r="T190" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19071,12 +19083,12 @@
         <v>11111111</v>
       </c>
       <c r="L191" s="2"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="3" t="s">
+      <c r="R191" s="2"/>
+      <c r="S191" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19111,12 +19123,12 @@
         <v>11111111</v>
       </c>
       <c r="L192" s="2"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="3" t="s">
+      <c r="R192" s="2"/>
+      <c r="S192" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19151,12 +19163,12 @@
         <v>11111111</v>
       </c>
       <c r="L193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="3" t="s">
+      <c r="R193" s="2"/>
+      <c r="S193" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19191,9 +19203,9 @@
         <v>11111111</v>
       </c>
       <c r="L194" s="2"/>
-      <c r="P194" s="2"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R194" s="2"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19228,12 +19240,12 @@
         <v>11111111</v>
       </c>
       <c r="L195" s="2"/>
-      <c r="P195" s="2"/>
-      <c r="R195" s="3" t="s">
+      <c r="R195" s="2"/>
+      <c r="T195" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19268,9 +19280,9 @@
         <v>11111111</v>
       </c>
       <c r="L196" s="2"/>
-      <c r="P196" s="2"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R196" s="2"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -19305,9 +19317,9 @@
         <v>11111111</v>
       </c>
       <c r="L197" s="3"/>
-      <c r="P197" s="3"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R197" s="3"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19344,9 +19356,9 @@
       <c r="L198" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="P198" s="2"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R198" s="2"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19381,9 +19393,9 @@
         <v>11111111</v>
       </c>
       <c r="L199" s="3"/>
-      <c r="P199" s="3"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R199" s="3"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19418,12 +19430,12 @@
         <v>11111111</v>
       </c>
       <c r="L200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="R200" s="3" t="s">
+      <c r="R200" s="2"/>
+      <c r="T200" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -19458,12 +19470,12 @@
         <v>11111111</v>
       </c>
       <c r="L201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="R201" s="3" t="s">
+      <c r="R201" s="2"/>
+      <c r="T201" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -19498,9 +19510,9 @@
         <v>11111111</v>
       </c>
       <c r="L202" s="2"/>
-      <c r="P202" s="2"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R202" s="2"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -19535,9 +19547,9 @@
         <v>11111111</v>
       </c>
       <c r="L203" s="2"/>
-      <c r="P203" s="2"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R203" s="2"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -19572,9 +19584,9 @@
         <v>11111111</v>
       </c>
       <c r="L204" s="2"/>
-      <c r="P204" s="2"/>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R204" s="2"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -19609,12 +19621,12 @@
         <v>11111111</v>
       </c>
       <c r="L205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="R205" s="3" t="s">
+      <c r="R205" s="2"/>
+      <c r="T205" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="25.2" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:20" ht="29" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -19649,15 +19661,15 @@
         <v>11111111</v>
       </c>
       <c r="L206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="3" t="s">
+      <c r="R206" s="2"/>
+      <c r="S206" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="R206" s="3" t="s">
+      <c r="T206" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -19692,12 +19704,12 @@
         <v>11111111</v>
       </c>
       <c r="L207" s="2"/>
-      <c r="P207" s="2"/>
-      <c r="R207" s="3" t="s">
+      <c r="R207" s="2"/>
+      <c r="T207" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -19732,12 +19744,12 @@
         <v>11111111</v>
       </c>
       <c r="L208" s="2"/>
-      <c r="P208" s="2"/>
-      <c r="R208" s="3" t="s">
+      <c r="R208" s="2"/>
+      <c r="T208" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -19772,12 +19784,12 @@
         <v>11111111</v>
       </c>
       <c r="L209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="3" t="s">
+      <c r="R209" s="2"/>
+      <c r="S209" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -19814,12 +19826,14 @@
       <c r="M210"/>
       <c r="N210"/>
       <c r="O210"/>
-      <c r="Q210" s="3" t="s">
+      <c r="P210"/>
+      <c r="Q210"/>
+      <c r="S210" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="R210" s="3"/>
-    </row>
-    <row r="211" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="T210" s="3"/>
+    </row>
+    <row r="211" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -19856,12 +19870,14 @@
       <c r="M211"/>
       <c r="N211"/>
       <c r="O211"/>
-      <c r="Q211" s="3"/>
-      <c r="R211" s="3" t="s">
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -19896,9 +19912,9 @@
         <v>11111111</v>
       </c>
       <c r="L212" s="2"/>
-      <c r="P212" s="2"/>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R212" s="2"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19933,9 +19949,9 @@
         <v>11111111</v>
       </c>
       <c r="L213" s="2"/>
-      <c r="P213" s="2"/>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="R213" s="2"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -19970,12 +19986,12 @@
         <v>11111111</v>
       </c>
       <c r="L214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="3" t="s">
+      <c r="R214" s="2"/>
+      <c r="S214" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -20005,7 +20021,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R215" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
+  <autoFilter ref="A1:T215" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20017,17 +20033,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AE88CD-1999-4414-94C5-3589FC354267}">
   <dimension ref="A1:T691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
+    <sheetView topLeftCell="A663" workbookViewId="0">
       <selection activeCell="A691" sqref="A691"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.58984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>362</v>
       </c>
@@ -20089,7 +20105,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -20137,7 +20153,7 @@
       </c>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -20185,7 +20201,7 @@
       </c>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -20237,7 +20253,7 @@
       </c>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -20285,7 +20301,7 @@
       </c>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -20337,7 +20353,7 @@
       </c>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -20387,7 +20403,7 @@
       </c>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -20437,7 +20453,7 @@
       </c>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -20489,7 +20505,7 @@
       </c>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -20539,7 +20555,7 @@
       </c>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -20589,7 +20605,7 @@
       </c>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -20641,7 +20657,7 @@
       </c>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -20691,7 +20707,7 @@
       </c>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -20743,7 +20759,7 @@
       </c>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -20793,7 +20809,7 @@
       </c>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -20842,7 +20858,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -20891,7 +20907,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -20940,7 +20956,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -20989,7 +21005,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -21036,7 +21052,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -21085,7 +21101,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -21132,7 +21148,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -21179,7 +21195,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -21228,7 +21244,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -21275,7 +21291,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -21324,7 +21340,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -21371,7 +21387,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -21422,7 +21438,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -21471,7 +21487,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -21520,7 +21536,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -21567,7 +21583,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -21614,7 +21630,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -21661,7 +21677,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -21710,7 +21726,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -21759,7 +21775,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -21808,7 +21824,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -21855,7 +21871,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -21904,7 +21920,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -21953,7 +21969,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -22002,7 +22018,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -22049,7 +22065,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -22098,7 +22114,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -22147,7 +22163,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -22196,7 +22212,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -22245,7 +22261,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -22294,7 +22310,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -22345,7 +22361,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -22394,7 +22410,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -22441,7 +22457,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -22488,7 +22504,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -22537,7 +22553,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -22586,7 +22602,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -22635,7 +22651,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -22686,7 +22702,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -22733,7 +22749,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -22782,7 +22798,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -22829,7 +22845,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -22876,7 +22892,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -22925,7 +22941,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -22978,7 +22994,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -23025,7 +23041,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -23076,7 +23092,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -23123,7 +23139,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -23170,7 +23186,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -23217,7 +23233,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -23266,7 +23282,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -23313,7 +23329,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -23362,7 +23378,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -23413,7 +23429,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -23462,7 +23478,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -23511,7 +23527,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -23560,7 +23576,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -23611,7 +23627,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -23660,7 +23676,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -23707,7 +23723,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -23756,7 +23772,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -23803,7 +23819,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -23852,7 +23868,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -23899,7 +23915,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -23948,7 +23964,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -23997,7 +24013,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -24050,7 +24066,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -24097,7 +24113,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -24146,7 +24162,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -24193,7 +24209,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -24242,7 +24258,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -24291,7 +24307,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -24338,7 +24354,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -24387,7 +24403,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -24436,7 +24452,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -24485,7 +24501,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -24532,7 +24548,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -24581,7 +24597,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -24630,7 +24646,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -24677,7 +24693,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -24724,7 +24740,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -24773,7 +24789,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -24820,7 +24836,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -24867,7 +24883,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -24914,7 +24930,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -24961,7 +24977,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -25010,7 +25026,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -25061,7 +25077,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -25112,7 +25128,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -25161,7 +25177,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -25208,7 +25224,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -25257,7 +25273,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -25302,7 +25318,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -25349,7 +25365,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -25400,7 +25416,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -25449,7 +25465,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -25498,7 +25514,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -25547,7 +25563,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -25598,7 +25614,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -25649,7 +25665,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -25698,7 +25714,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -25747,7 +25763,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -25796,7 +25812,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -25845,7 +25861,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -25898,7 +25914,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -25949,7 +25965,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -25998,7 +26014,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -26047,7 +26063,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -26096,7 +26112,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -26145,7 +26161,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -26194,7 +26210,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -26243,7 +26259,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -26292,7 +26308,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -26343,7 +26359,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -26394,7 +26410,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -26443,7 +26459,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -26490,7 +26506,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -26539,7 +26555,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -26588,7 +26604,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -26637,7 +26653,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -26686,7 +26702,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -26739,7 +26755,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -26788,7 +26804,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -26839,7 +26855,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -26892,7 +26908,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -26943,7 +26959,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -26992,7 +27008,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -27039,7 +27055,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -27088,7 +27104,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="20">
         <v>144</v>
       </c>
@@ -27135,7 +27151,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="20">
         <v>145</v>
       </c>
@@ -27184,7 +27200,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="20">
         <v>146</v>
       </c>
@@ -27231,7 +27247,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="20">
         <v>147</v>
       </c>
@@ -27282,7 +27298,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -27329,7 +27345,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="20">
         <v>149</v>
       </c>
@@ -27376,7 +27392,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="20">
         <v>150</v>
       </c>
@@ -27423,7 +27439,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="20">
         <v>151</v>
       </c>
@@ -27470,7 +27486,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="20">
         <v>152</v>
       </c>
@@ -27519,7 +27535,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="20">
         <v>153</v>
       </c>
@@ -27566,7 +27582,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="20">
         <v>154</v>
       </c>
@@ -27615,7 +27631,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="20">
         <v>155</v>
       </c>
@@ -27664,7 +27680,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="20">
         <v>156</v>
       </c>
@@ -27711,7 +27727,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -27762,7 +27778,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="20">
         <v>158</v>
       </c>
@@ -27811,7 +27827,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="20">
         <v>159</v>
       </c>
@@ -27858,7 +27874,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="20">
         <v>160</v>
       </c>
@@ -27905,7 +27921,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="20">
         <v>161</v>
       </c>
@@ -27954,7 +27970,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="20">
         <v>162</v>
       </c>
@@ -28003,7 +28019,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -28054,7 +28070,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="20">
         <v>164</v>
       </c>
@@ -28101,7 +28117,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="20">
         <v>165</v>
       </c>
@@ -28150,7 +28166,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="20">
         <v>166</v>
       </c>
@@ -28201,7 +28217,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -28248,7 +28264,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="20">
         <v>168</v>
       </c>
@@ -28299,7 +28315,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="20">
         <v>169</v>
       </c>
@@ -28346,7 +28362,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="20">
         <v>170</v>
       </c>
@@ -28393,7 +28409,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="20">
         <v>171</v>
       </c>
@@ -28440,7 +28456,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="20">
         <v>172</v>
       </c>
@@ -28489,7 +28505,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="20">
         <v>173</v>
       </c>
@@ -28538,7 +28554,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="20">
         <v>174</v>
       </c>
@@ -28587,7 +28603,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="20">
         <v>175</v>
       </c>
@@ -28638,7 +28654,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="20">
         <v>176</v>
       </c>
@@ -28687,7 +28703,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="20">
         <v>177</v>
       </c>
@@ -28736,7 +28752,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -28785,7 +28801,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="20">
         <v>179</v>
       </c>
@@ -28834,7 +28850,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -28883,7 +28899,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="20">
         <v>181</v>
       </c>
@@ -28932,7 +28948,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="20">
         <v>182</v>
       </c>
@@ -28981,7 +28997,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="20">
         <v>183</v>
       </c>
@@ -29028,7 +29044,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="20">
         <v>184</v>
       </c>
@@ -29075,7 +29091,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -29122,7 +29138,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="20">
         <v>186</v>
       </c>
@@ -29171,7 +29187,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="20">
         <v>187</v>
       </c>
@@ -29220,7 +29236,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="20">
         <v>188</v>
       </c>
@@ -29271,7 +29287,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -29318,7 +29334,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="20">
         <v>190</v>
       </c>
@@ -29365,7 +29381,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="20">
         <v>191</v>
       </c>
@@ -29416,7 +29432,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -29463,7 +29479,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="20">
         <v>193</v>
       </c>
@@ -29516,7 +29532,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="20">
         <v>194</v>
       </c>
@@ -29563,7 +29579,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="20">
         <v>195</v>
       </c>
@@ -29610,7 +29626,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="20">
         <v>196</v>
       </c>
@@ -29657,7 +29673,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="20">
         <v>197</v>
       </c>
@@ -29706,7 +29722,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="20">
         <v>198</v>
       </c>
@@ -29753,7 +29769,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="20">
         <v>199</v>
       </c>
@@ -29800,7 +29816,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="20">
         <v>200</v>
       </c>
@@ -29849,7 +29865,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="20">
         <v>201</v>
       </c>
@@ -29894,7 +29910,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="20">
         <v>202</v>
       </c>
@@ -29947,7 +29963,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="20">
         <v>203</v>
       </c>
@@ -29998,7 +30014,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="20">
         <v>204</v>
       </c>
@@ -30049,7 +30065,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="20">
         <v>205</v>
       </c>
@@ -30098,7 +30114,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="20">
         <v>206</v>
       </c>
@@ -30145,7 +30161,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="20">
         <v>207</v>
       </c>
@@ -30194,7 +30210,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="20">
         <v>208</v>
       </c>
@@ -30247,7 +30263,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="20">
         <v>209</v>
       </c>
@@ -30298,7 +30314,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="20">
         <v>210</v>
       </c>
@@ -30349,7 +30365,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="20">
         <v>211</v>
       </c>
@@ -30398,7 +30414,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="20">
         <v>212</v>
       </c>
@@ -30447,7 +30463,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="20">
         <v>213</v>
       </c>
@@ -30498,7 +30514,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="20">
         <v>214</v>
       </c>
@@ -30547,7 +30563,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="20">
         <v>215</v>
       </c>
@@ -30596,7 +30612,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="20">
         <v>216</v>
       </c>
@@ -30649,7 +30665,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="20">
         <v>217</v>
       </c>
@@ -30696,7 +30712,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="20">
         <v>218</v>
       </c>
@@ -30745,7 +30761,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="20">
         <v>219</v>
       </c>
@@ -30796,7 +30812,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="20">
         <v>220</v>
       </c>
@@ -30845,7 +30861,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="20">
         <v>221</v>
       </c>
@@ -30892,7 +30908,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="20">
         <v>222</v>
       </c>
@@ -30939,7 +30955,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="20">
         <v>223</v>
       </c>
@@ -30988,7 +31004,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="20">
         <v>224</v>
       </c>
@@ -31039,7 +31055,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="20">
         <v>225</v>
       </c>
@@ -31088,7 +31104,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="20">
         <v>226</v>
       </c>
@@ -31137,7 +31153,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="20">
         <v>227</v>
       </c>
@@ -31184,7 +31200,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="20">
         <v>228</v>
       </c>
@@ -31231,7 +31247,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="20">
         <v>229</v>
       </c>
@@ -31278,7 +31294,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="20">
         <v>230</v>
       </c>
@@ -31325,7 +31341,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="20">
         <v>231</v>
       </c>
@@ -31372,7 +31388,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="20">
         <v>232</v>
       </c>
@@ -31419,7 +31435,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="20">
         <v>233</v>
       </c>
@@ -31470,7 +31486,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="20">
         <v>234</v>
       </c>
@@ -31517,7 +31533,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="20">
         <v>235</v>
       </c>
@@ -31564,7 +31580,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="20">
         <v>236</v>
       </c>
@@ -31613,7 +31629,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="20">
         <v>237</v>
       </c>
@@ -31662,7 +31678,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="20">
         <v>238</v>
       </c>
@@ -31711,7 +31727,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="20">
         <v>239</v>
       </c>
@@ -31758,7 +31774,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="20">
         <v>240</v>
       </c>
@@ -31805,7 +31821,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="20">
         <v>241</v>
       </c>
@@ -31852,7 +31868,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="20">
         <v>242</v>
       </c>
@@ -31901,7 +31917,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="20">
         <v>243</v>
       </c>
@@ -31954,7 +31970,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="20">
         <v>244</v>
       </c>
@@ -32003,7 +32019,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="20">
         <v>245</v>
       </c>
@@ -32052,7 +32068,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="20">
         <v>246</v>
       </c>
@@ -32101,7 +32117,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="20">
         <v>247</v>
       </c>
@@ -32152,7 +32168,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="20">
         <v>248</v>
       </c>
@@ -32205,7 +32221,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="20">
         <v>249</v>
       </c>
@@ -32254,7 +32270,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="20">
         <v>250</v>
       </c>
@@ -32303,7 +32319,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="20">
         <v>251</v>
       </c>
@@ -32352,7 +32368,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="20">
         <v>252</v>
       </c>
@@ -32401,7 +32417,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="20">
         <v>253</v>
       </c>
@@ -32450,7 +32466,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="20">
         <v>254</v>
       </c>
@@ -32497,7 +32513,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="20">
         <v>255</v>
       </c>
@@ -32546,7 +32562,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="20">
         <v>256</v>
       </c>
@@ -32595,7 +32611,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="20">
         <v>257</v>
       </c>
@@ -32648,7 +32664,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="20">
         <v>258</v>
       </c>
@@ -32699,7 +32715,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="20">
         <v>259</v>
       </c>
@@ -32752,7 +32768,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="20">
         <v>260</v>
       </c>
@@ -32801,7 +32817,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="20">
         <v>261</v>
       </c>
@@ -32850,7 +32866,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="20">
         <v>262</v>
       </c>
@@ -32899,7 +32915,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="20">
         <v>263</v>
       </c>
@@ -32948,7 +32964,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="20">
         <v>264</v>
       </c>
@@ -32999,7 +33015,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="20">
         <v>265</v>
       </c>
@@ -33050,7 +33066,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="20">
         <v>266</v>
       </c>
@@ -33097,7 +33113,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="20">
         <v>267</v>
       </c>
@@ -33146,7 +33162,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="20">
         <v>268</v>
       </c>
@@ -33195,7 +33211,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="20">
         <v>269</v>
       </c>
@@ -33244,7 +33260,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="20">
         <v>270</v>
       </c>
@@ -33289,7 +33305,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="20">
         <v>271</v>
       </c>
@@ -33336,7 +33352,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="20">
         <v>272</v>
       </c>
@@ -33385,7 +33401,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="20">
         <v>273</v>
       </c>
@@ -33430,7 +33446,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="20">
         <v>274</v>
       </c>
@@ -33479,7 +33495,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="20">
         <v>275</v>
       </c>
@@ -33526,7 +33542,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="20">
         <v>276</v>
       </c>
@@ -33575,7 +33591,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="20">
         <v>277</v>
       </c>
@@ -33626,7 +33642,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" s="20">
         <v>278</v>
       </c>
@@ -33677,7 +33693,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="20">
         <v>279</v>
       </c>
@@ -33726,7 +33742,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="20">
         <v>280</v>
       </c>
@@ -33773,7 +33789,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" s="20">
         <v>281</v>
       </c>
@@ -33820,7 +33836,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283" s="20">
         <v>282</v>
       </c>
@@ -33871,7 +33887,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284" s="20">
         <v>283</v>
       </c>
@@ -33920,7 +33936,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285" s="20">
         <v>284</v>
       </c>
@@ -33969,7 +33985,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286" s="20">
         <v>285</v>
       </c>
@@ -34020,7 +34036,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" s="20">
         <v>286</v>
       </c>
@@ -34071,7 +34087,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" s="20">
         <v>287</v>
       </c>
@@ -34120,7 +34136,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="20">
         <v>288</v>
       </c>
@@ -34173,7 +34189,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="20">
         <v>289</v>
       </c>
@@ -34222,7 +34238,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" s="20">
         <v>290</v>
       </c>
@@ -34271,7 +34287,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="20">
         <v>291</v>
       </c>
@@ -34322,7 +34338,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="20">
         <v>292</v>
       </c>
@@ -34373,7 +34389,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="20">
         <v>293</v>
       </c>
@@ -34424,7 +34440,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="20">
         <v>294</v>
       </c>
@@ -34475,7 +34491,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="20">
         <v>295</v>
       </c>
@@ -34528,7 +34544,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" s="20">
         <v>296</v>
       </c>
@@ -34579,7 +34595,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="20">
         <v>297</v>
       </c>
@@ -34630,7 +34646,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" s="20">
         <v>298</v>
       </c>
@@ -34681,7 +34697,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="20">
         <v>299</v>
       </c>
@@ -34732,7 +34748,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="20">
         <v>300</v>
       </c>
@@ -34781,7 +34797,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" s="20">
         <v>301</v>
       </c>
@@ -34834,7 +34850,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" s="20">
         <v>302</v>
       </c>
@@ -34883,7 +34899,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" s="20">
         <v>303</v>
       </c>
@@ -34932,7 +34948,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="20">
         <v>304</v>
       </c>
@@ -34977,7 +34993,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="20">
         <v>305</v>
       </c>
@@ -35028,7 +35044,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="20">
         <v>306</v>
       </c>
@@ -35075,7 +35091,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="20">
         <v>307</v>
       </c>
@@ -35124,7 +35140,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="20">
         <v>308</v>
       </c>
@@ -35173,7 +35189,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="20">
         <v>309</v>
       </c>
@@ -35222,7 +35238,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="20">
         <v>310</v>
       </c>
@@ -35273,7 +35289,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="20">
         <v>311</v>
       </c>
@@ -35320,7 +35336,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="20">
         <v>312</v>
       </c>
@@ -35369,7 +35385,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="20">
         <v>313</v>
       </c>
@@ -35418,7 +35434,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="20">
         <v>314</v>
       </c>
@@ -35469,7 +35485,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="20">
         <v>315</v>
       </c>
@@ -35516,7 +35532,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="20">
         <v>316</v>
       </c>
@@ -35567,7 +35583,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="20">
         <v>317</v>
       </c>
@@ -35614,7 +35630,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="20">
         <v>318</v>
       </c>
@@ -35663,7 +35679,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="20">
         <v>319</v>
       </c>
@@ -35710,7 +35726,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" s="20">
         <v>320</v>
       </c>
@@ -35759,7 +35775,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" s="20">
         <v>321</v>
       </c>
@@ -35808,7 +35824,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" s="20">
         <v>322</v>
       </c>
@@ -35857,7 +35873,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="20">
         <v>323</v>
       </c>
@@ -35906,7 +35922,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325" s="20">
         <v>324</v>
       </c>
@@ -35955,7 +35971,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326" s="20">
         <v>325</v>
       </c>
@@ -36002,7 +36018,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327" s="20">
         <v>326</v>
       </c>
@@ -36051,7 +36067,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A328" s="20">
         <v>327</v>
       </c>
@@ -36100,7 +36116,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" s="20">
         <v>328</v>
       </c>
@@ -36147,7 +36163,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" s="20">
         <v>329</v>
       </c>
@@ -36196,7 +36212,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" s="20">
         <v>330</v>
       </c>
@@ -36245,7 +36261,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332" s="20">
         <v>331</v>
       </c>
@@ -36294,7 +36310,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333" s="20">
         <v>332</v>
       </c>
@@ -36345,7 +36361,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334" s="20">
         <v>333</v>
       </c>
@@ -36392,7 +36408,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A335" s="20">
         <v>334</v>
       </c>
@@ -36441,7 +36457,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336" s="20">
         <v>335</v>
       </c>
@@ -36490,7 +36506,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="20">
         <v>336</v>
       </c>
@@ -36537,7 +36553,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="20">
         <v>337</v>
       </c>
@@ -36586,7 +36602,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="20">
         <v>338</v>
       </c>
@@ -36635,7 +36651,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="20">
         <v>339</v>
       </c>
@@ -36684,7 +36700,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="20">
         <v>340</v>
       </c>
@@ -36733,7 +36749,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="20">
         <v>341</v>
       </c>
@@ -36780,7 +36796,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="20">
         <v>342</v>
       </c>
@@ -36827,7 +36843,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="20">
         <v>343</v>
       </c>
@@ -36876,7 +36892,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="20">
         <v>344</v>
       </c>
@@ -36923,7 +36939,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="20">
         <v>345</v>
       </c>
@@ -36972,7 +36988,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="20">
         <v>346</v>
       </c>
@@ -37019,7 +37035,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="20">
         <v>347</v>
       </c>
@@ -37068,7 +37084,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="20">
         <v>348</v>
       </c>
@@ -37119,7 +37135,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="20">
         <v>349</v>
       </c>
@@ -37168,7 +37184,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="20">
         <v>350</v>
       </c>
@@ -37217,7 +37233,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="20">
         <v>351</v>
       </c>
@@ -37270,7 +37286,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353" s="20">
         <v>352</v>
       </c>
@@ -37321,7 +37337,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354" s="20">
         <v>353</v>
       </c>
@@ -37372,7 +37388,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" s="20">
         <v>354</v>
       </c>
@@ -37423,7 +37439,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" s="20">
         <v>355</v>
       </c>
@@ -37474,7 +37490,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" s="20">
         <v>356</v>
       </c>
@@ -37525,7 +37541,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" s="20">
         <v>357</v>
       </c>
@@ -37576,7 +37592,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="20">
         <v>358</v>
       </c>
@@ -37627,7 +37643,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="20">
         <v>359</v>
       </c>
@@ -37678,7 +37694,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361" s="20">
         <v>360</v>
       </c>
@@ -37729,7 +37745,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362" s="20">
         <v>361</v>
       </c>
@@ -37778,7 +37794,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" s="20">
         <v>362</v>
       </c>
@@ -37827,7 +37843,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364" s="20">
         <v>363</v>
       </c>
@@ -37876,7 +37892,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365" s="20">
         <v>364</v>
       </c>
@@ -37927,7 +37943,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" s="20">
         <v>365</v>
       </c>
@@ -37978,7 +37994,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" s="20">
         <v>366</v>
       </c>
@@ -38027,7 +38043,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" s="20">
         <v>367</v>
       </c>
@@ -38076,7 +38092,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" s="20">
         <v>368</v>
       </c>
@@ -38127,7 +38143,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" s="20">
         <v>369</v>
       </c>
@@ -38180,7 +38196,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" s="20">
         <v>370</v>
       </c>
@@ -38231,7 +38247,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" s="20">
         <v>371</v>
       </c>
@@ -38284,7 +38300,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" s="20">
         <v>372</v>
       </c>
@@ -38335,7 +38351,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A374" s="20">
         <v>373</v>
       </c>
@@ -38384,7 +38400,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="20">
         <v>374</v>
       </c>
@@ -38435,7 +38451,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" s="20">
         <v>375</v>
       </c>
@@ -38486,7 +38502,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" s="20">
         <v>376</v>
       </c>
@@ -38535,7 +38551,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378" s="20">
         <v>377</v>
       </c>
@@ -38586,7 +38602,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379" s="20">
         <v>378</v>
       </c>
@@ -38635,7 +38651,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380" s="20">
         <v>379</v>
       </c>
@@ -38686,7 +38702,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381" s="20">
         <v>380</v>
       </c>
@@ -38739,7 +38755,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" s="20">
         <v>381</v>
       </c>
@@ -38788,7 +38804,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" s="20">
         <v>382</v>
       </c>
@@ -38837,7 +38853,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" s="20">
         <v>383</v>
       </c>
@@ -38886,7 +38902,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" s="20">
         <v>384</v>
       </c>
@@ -38937,7 +38953,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386" s="20">
         <v>385</v>
       </c>
@@ -38990,7 +39006,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" s="20">
         <v>386</v>
       </c>
@@ -39039,7 +39055,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="20">
         <v>387</v>
       </c>
@@ -39092,7 +39108,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="20">
         <v>388</v>
       </c>
@@ -39143,7 +39159,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="20">
         <v>389</v>
       </c>
@@ -39192,7 +39208,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="20">
         <v>390</v>
       </c>
@@ -39241,7 +39257,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="20">
         <v>391</v>
       </c>
@@ -39292,7 +39308,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" s="20">
         <v>392</v>
       </c>
@@ -39345,7 +39361,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="20">
         <v>393</v>
       </c>
@@ -39396,7 +39412,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" s="20">
         <v>394</v>
       </c>
@@ -39445,7 +39461,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="20">
         <v>395</v>
       </c>
@@ -39494,7 +39510,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="20">
         <v>396</v>
       </c>
@@ -39543,7 +39559,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="20">
         <v>397</v>
       </c>
@@ -39592,7 +39608,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" s="20">
         <v>398</v>
       </c>
@@ -39643,7 +39659,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="20">
         <v>399</v>
       </c>
@@ -39694,7 +39710,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="20">
         <v>400</v>
       </c>
@@ -39741,7 +39757,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402" s="20">
         <v>401</v>
       </c>
@@ -39788,7 +39804,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="20">
         <v>402</v>
       </c>
@@ -39837,7 +39853,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404" s="20">
         <v>403</v>
       </c>
@@ -39886,7 +39902,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405" s="20">
         <v>404</v>
       </c>
@@ -39935,7 +39951,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406" s="20">
         <v>405</v>
       </c>
@@ -39984,7 +40000,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="20">
         <v>406</v>
       </c>
@@ -40033,7 +40049,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408" s="20">
         <v>407</v>
       </c>
@@ -40082,7 +40098,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409" s="20">
         <v>408</v>
       </c>
@@ -40131,7 +40147,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410" s="20">
         <v>409</v>
       </c>
@@ -40182,7 +40198,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" s="20">
         <v>410</v>
       </c>
@@ -40231,7 +40247,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412" s="20">
         <v>411</v>
       </c>
@@ -40280,7 +40296,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" s="20">
         <v>412</v>
       </c>
@@ -40325,7 +40341,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" s="20">
         <v>413</v>
       </c>
@@ -40376,7 +40392,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" s="20">
         <v>414</v>
       </c>
@@ -40425,7 +40441,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416" s="20">
         <v>415</v>
       </c>
@@ -40476,7 +40492,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417" s="20">
         <v>416</v>
       </c>
@@ -40529,7 +40545,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418" s="20">
         <v>417</v>
       </c>
@@ -40580,7 +40596,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" s="20">
         <v>418</v>
       </c>
@@ -40631,7 +40647,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420" s="20">
         <v>419</v>
       </c>
@@ -40680,7 +40696,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="20">
         <v>420</v>
       </c>
@@ -40729,7 +40745,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422" s="20">
         <v>421</v>
       </c>
@@ -40778,7 +40794,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" s="20">
         <v>422</v>
       </c>
@@ -40827,7 +40843,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424" s="20">
         <v>423</v>
       </c>
@@ -40876,7 +40892,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425" s="20">
         <v>424</v>
       </c>
@@ -40925,7 +40941,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" s="20">
         <v>425</v>
       </c>
@@ -40974,7 +40990,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427" s="20">
         <v>426</v>
       </c>
@@ -41025,7 +41041,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428" s="20">
         <v>427</v>
       </c>
@@ -41074,7 +41090,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429" s="20">
         <v>428</v>
       </c>
@@ -41121,7 +41137,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430" s="20">
         <v>429</v>
       </c>
@@ -41170,7 +41186,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" s="20">
         <v>430</v>
       </c>
@@ -41219,7 +41235,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" s="20">
         <v>431</v>
       </c>
@@ -41268,7 +41284,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433" s="20">
         <v>432</v>
       </c>
@@ -41317,7 +41333,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434" s="20">
         <v>433</v>
       </c>
@@ -41366,7 +41382,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435" s="20">
         <v>434</v>
       </c>
@@ -41413,7 +41429,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436" s="20">
         <v>435</v>
       </c>
@@ -41462,7 +41478,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A437" s="20">
         <v>436</v>
       </c>
@@ -41511,7 +41527,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A438" s="20">
         <v>437</v>
       </c>
@@ -41560,7 +41576,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439" s="20">
         <v>438</v>
       </c>
@@ -41609,7 +41625,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A440" s="20">
         <v>439</v>
       </c>
@@ -41660,7 +41676,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" s="20">
         <v>440</v>
       </c>
@@ -41711,7 +41727,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" s="20">
         <v>441</v>
       </c>
@@ -41760,7 +41776,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" s="20">
         <v>442</v>
       </c>
@@ -41811,7 +41827,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444" s="20">
         <v>443</v>
       </c>
@@ -41864,7 +41880,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445" s="20">
         <v>444</v>
       </c>
@@ -41913,7 +41929,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446" s="20">
         <v>445</v>
       </c>
@@ -41962,7 +41978,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447" s="20">
         <v>446</v>
       </c>
@@ -42009,7 +42025,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448" s="20">
         <v>447</v>
       </c>
@@ -42058,7 +42074,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="20">
         <v>448</v>
       </c>
@@ -42105,7 +42121,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450" s="20">
         <v>449</v>
       </c>
@@ -42154,7 +42170,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451" s="20">
         <v>450</v>
       </c>
@@ -42201,7 +42217,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452" s="20">
         <v>451</v>
       </c>
@@ -42250,7 +42266,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453" s="20">
         <v>452</v>
       </c>
@@ -42301,7 +42317,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454" s="20">
         <v>453</v>
       </c>
@@ -42352,7 +42368,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455" s="20">
         <v>454</v>
       </c>
@@ -42399,7 +42415,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456" s="20">
         <v>455</v>
       </c>
@@ -42448,7 +42464,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457" s="20">
         <v>456</v>
       </c>
@@ -42497,7 +42513,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458" s="20">
         <v>457</v>
       </c>
@@ -42548,7 +42564,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459" s="20">
         <v>458</v>
       </c>
@@ -42599,7 +42615,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A460" s="20">
         <v>459</v>
       </c>
@@ -42646,7 +42662,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461" s="20">
         <v>460</v>
       </c>
@@ -42697,7 +42713,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462" s="20">
         <v>461</v>
       </c>
@@ -42746,7 +42762,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463" s="20">
         <v>462</v>
       </c>
@@ -42799,7 +42815,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464" s="20">
         <v>463</v>
       </c>
@@ -42850,7 +42866,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465" s="20">
         <v>464</v>
       </c>
@@ -42897,7 +42913,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466" s="20">
         <v>465</v>
       </c>
@@ -42946,7 +42962,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467" s="20">
         <v>466</v>
       </c>
@@ -42999,7 +43015,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468" s="20">
         <v>467</v>
       </c>
@@ -43046,7 +43062,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="20">
         <v>468</v>
       </c>
@@ -43099,7 +43115,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="20">
         <v>469</v>
       </c>
@@ -43148,7 +43164,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="20">
         <v>470</v>
       </c>
@@ -43201,7 +43217,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="472" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="20">
         <v>471</v>
       </c>
@@ -43252,7 +43268,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="473" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="20">
         <v>472</v>
       </c>
@@ -43303,7 +43319,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="474" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="20">
         <v>473</v>
       </c>
@@ -43352,7 +43368,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="475" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="20">
         <v>474</v>
       </c>
@@ -43401,7 +43417,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="476" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476" s="20">
         <v>475</v>
       </c>
@@ -43448,7 +43464,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="477" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477" s="20">
         <v>476</v>
       </c>
@@ -43497,7 +43513,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="478" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="20">
         <v>477</v>
       </c>
@@ -43548,7 +43564,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="479" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="20">
         <v>478</v>
       </c>
@@ -43597,7 +43613,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="480" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480" s="20">
         <v>479</v>
       </c>
@@ -43646,7 +43662,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="481" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481" s="20">
         <v>480</v>
       </c>
@@ -43695,7 +43711,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="482" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482" s="20">
         <v>481</v>
       </c>
@@ -43744,7 +43760,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="483" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483" s="20">
         <v>482</v>
       </c>
@@ -43793,7 +43809,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="484" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A484" s="20">
         <v>483</v>
       </c>
@@ -43840,7 +43856,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="485" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485" s="20">
         <v>484</v>
       </c>
@@ -43887,7 +43903,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="486" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486" s="20">
         <v>485</v>
       </c>
@@ -43936,7 +43952,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="487" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487" s="20">
         <v>486</v>
       </c>
@@ -43985,7 +44001,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="488" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488" s="20">
         <v>487</v>
       </c>
@@ -44034,7 +44050,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="489" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489" s="20">
         <v>488</v>
       </c>
@@ -44085,7 +44101,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="490" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490" s="20">
         <v>489</v>
       </c>
@@ -44134,7 +44150,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="491" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" s="20">
         <v>490</v>
       </c>
@@ -44183,7 +44199,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="492" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492" s="20">
         <v>491</v>
       </c>
@@ -44234,7 +44250,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="493" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493" s="20">
         <v>492</v>
       </c>
@@ -44285,7 +44301,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="494" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494" s="20">
         <v>493</v>
       </c>
@@ -44334,7 +44350,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="495" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495" s="20">
         <v>494</v>
       </c>
@@ -44381,7 +44397,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="496" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496" s="20">
         <v>495</v>
       </c>
@@ -44432,7 +44448,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="497" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="20">
         <v>496</v>
       </c>
@@ -44481,7 +44497,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="498" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="20">
         <v>497</v>
       </c>
@@ -44530,7 +44546,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="499" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="20">
         <v>498</v>
       </c>
@@ -44577,7 +44593,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="500" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="20">
         <v>499</v>
       </c>
@@ -44626,7 +44642,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="501" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="20">
         <v>500</v>
       </c>
@@ -44675,7 +44691,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="502" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="20">
         <v>501</v>
       </c>
@@ -44724,7 +44740,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="503" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="20">
         <v>502</v>
       </c>
@@ -44773,7 +44789,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="504" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="20">
         <v>503</v>
       </c>
@@ -44822,7 +44838,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="505" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="20">
         <v>504</v>
       </c>
@@ -44871,7 +44887,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="506" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="20">
         <v>505</v>
       </c>
@@ -44920,7 +44936,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="507" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="20">
         <v>506</v>
       </c>
@@ -44967,7 +44983,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="508" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="20">
         <v>507</v>
       </c>
@@ -45016,7 +45032,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="509" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="20">
         <v>508</v>
       </c>
@@ -45065,7 +45081,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="510" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="20">
         <v>509</v>
       </c>
@@ -45114,7 +45130,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="511" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="20">
         <v>510</v>
       </c>
@@ -45161,7 +45177,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="512" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="20">
         <v>511</v>
       </c>
@@ -45210,7 +45226,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="513" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="20">
         <v>512</v>
       </c>
@@ -45259,7 +45275,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="20">
         <v>513</v>
       </c>
@@ -45308,7 +45324,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="20">
         <v>514</v>
       </c>
@@ -45357,7 +45373,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="20">
         <v>515</v>
       </c>
@@ -45404,7 +45420,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="20">
         <v>516</v>
       </c>
@@ -45455,7 +45471,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="20">
         <v>517</v>
       </c>
@@ -45506,7 +45522,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="20">
         <v>518</v>
       </c>
@@ -45557,7 +45573,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="20">
         <v>519</v>
       </c>
@@ -45606,7 +45622,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="20">
         <v>520</v>
       </c>
@@ -45657,7 +45673,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="522" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="20">
         <v>521</v>
       </c>
@@ -45706,7 +45722,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="523" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="20">
         <v>522</v>
       </c>
@@ -45753,7 +45769,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="20">
         <v>523</v>
       </c>
@@ -45806,7 +45822,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="20">
         <v>524</v>
       </c>
@@ -45857,7 +45873,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="20">
         <v>525</v>
       </c>
@@ -45906,7 +45922,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="20">
         <v>526</v>
       </c>
@@ -45955,7 +45971,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="20">
         <v>527</v>
       </c>
@@ -46006,7 +46022,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529" s="20">
         <v>528</v>
       </c>
@@ -46057,7 +46073,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" s="20">
         <v>529</v>
       </c>
@@ -46108,7 +46124,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" s="20">
         <v>530</v>
       </c>
@@ -46157,7 +46173,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="532" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" s="20">
         <v>531</v>
       </c>
@@ -46206,7 +46222,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" s="20">
         <v>532</v>
       </c>
@@ -46257,7 +46273,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" s="20">
         <v>533</v>
       </c>
@@ -46304,7 +46320,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" s="20">
         <v>534</v>
       </c>
@@ -46353,7 +46369,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536" s="20">
         <v>535</v>
       </c>
@@ -46402,7 +46418,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" s="20">
         <v>536</v>
       </c>
@@ -46451,7 +46467,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538" s="20">
         <v>537</v>
       </c>
@@ -46502,7 +46518,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="539" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" s="20">
         <v>538</v>
       </c>
@@ -46553,7 +46569,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="540" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" s="20">
         <v>539</v>
       </c>
@@ -46602,7 +46618,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="541" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541" s="20">
         <v>540</v>
       </c>
@@ -46649,7 +46665,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="542" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542" s="20">
         <v>541</v>
       </c>
@@ -46698,7 +46714,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="543" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543" s="20">
         <v>542</v>
       </c>
@@ -46751,7 +46767,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="544" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544" s="20">
         <v>543</v>
       </c>
@@ -46804,7 +46820,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="545" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="20">
         <v>544</v>
       </c>
@@ -46853,7 +46869,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="546" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A546" s="20">
         <v>545</v>
       </c>
@@ -46902,7 +46918,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="547" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547" s="20">
         <v>546</v>
       </c>
@@ -46951,7 +46967,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="548" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548" s="20">
         <v>547</v>
       </c>
@@ -47002,7 +47018,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="549" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549" s="20">
         <v>548</v>
       </c>
@@ -47053,7 +47069,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="550" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550" s="20">
         <v>549</v>
       </c>
@@ -47102,7 +47118,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="551" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551" s="20">
         <v>550</v>
       </c>
@@ -47153,7 +47169,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="552" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552" s="20">
         <v>551</v>
       </c>
@@ -47204,7 +47220,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="553" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" s="20">
         <v>552</v>
       </c>
@@ -47253,7 +47269,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="554" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" s="20">
         <v>553</v>
       </c>
@@ -47302,7 +47318,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="555" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" s="20">
         <v>554</v>
       </c>
@@ -47353,7 +47369,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="556" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" s="20">
         <v>555</v>
       </c>
@@ -47402,7 +47418,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="557" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" s="20">
         <v>556</v>
       </c>
@@ -47451,7 +47467,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558" s="20">
         <v>557</v>
       </c>
@@ -47500,7 +47516,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="559" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559" s="20">
         <v>558</v>
       </c>
@@ -47549,7 +47565,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="560" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560" s="20">
         <v>559</v>
       </c>
@@ -47598,7 +47614,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="561" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="20">
         <v>560</v>
       </c>
@@ -47647,7 +47663,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="562" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" s="20">
         <v>561</v>
       </c>
@@ -47696,7 +47712,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="563" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" s="20">
         <v>562</v>
       </c>
@@ -47745,7 +47761,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="564" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564" s="20">
         <v>563</v>
       </c>
@@ -47794,7 +47810,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="565" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" s="20">
         <v>564</v>
       </c>
@@ -47843,7 +47859,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="566" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" s="20">
         <v>565</v>
       </c>
@@ -47892,7 +47908,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567" s="20">
         <v>566</v>
       </c>
@@ -47939,7 +47955,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="568" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" s="20">
         <v>567</v>
       </c>
@@ -47986,7 +48002,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="569" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" s="20">
         <v>568</v>
       </c>
@@ -48035,7 +48051,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="570" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" s="20">
         <v>569</v>
       </c>
@@ -48086,7 +48102,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="571" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" s="20">
         <v>570</v>
       </c>
@@ -48137,7 +48153,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="572" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" s="20">
         <v>571</v>
       </c>
@@ -48190,7 +48206,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A573" s="20">
         <v>572</v>
       </c>
@@ -48239,7 +48255,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="574" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A574" s="20">
         <v>573</v>
       </c>
@@ -48288,7 +48304,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="575" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A575" s="20">
         <v>574</v>
       </c>
@@ -48335,7 +48351,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="576" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A576" s="20">
         <v>575</v>
       </c>
@@ -48384,7 +48400,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="577" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A577" s="20">
         <v>576</v>
       </c>
@@ -48431,7 +48447,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="578" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A578" s="20">
         <v>577</v>
       </c>
@@ -48482,7 +48498,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="579" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A579" s="20">
         <v>578</v>
       </c>
@@ -48531,7 +48547,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="580" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A580" s="20">
         <v>579</v>
       </c>
@@ -48582,7 +48598,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="581" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A581" s="20">
         <v>580</v>
       </c>
@@ -48635,7 +48651,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="582" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A582" s="20">
         <v>581</v>
       </c>
@@ -48688,7 +48704,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="583" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A583" s="20">
         <v>582</v>
       </c>
@@ -48739,7 +48755,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="584" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A584" s="20">
         <v>583</v>
       </c>
@@ -48788,7 +48804,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="585" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A585" s="20">
         <v>584</v>
       </c>
@@ -48839,7 +48855,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="586" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A586" s="20">
         <v>585</v>
       </c>
@@ -48890,7 +48906,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="587" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A587" s="20">
         <v>586</v>
       </c>
@@ -48941,7 +48957,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="588" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A588" s="20">
         <v>587</v>
       </c>
@@ -48994,7 +49010,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="589" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A589" s="20">
         <v>588</v>
       </c>
@@ -49045,7 +49061,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="590" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590" s="20">
         <v>589</v>
       </c>
@@ -49094,7 +49110,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="591" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A591" s="20">
         <v>590</v>
       </c>
@@ -49143,7 +49159,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="592" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A592" s="20">
         <v>591</v>
       </c>
@@ -49191,7 +49207,7 @@
       </c>
       <c r="T592" s="20"/>
     </row>
-    <row r="593" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593" s="20">
         <v>592</v>
       </c>
@@ -49241,7 +49257,7 @@
       </c>
       <c r="T593" s="20"/>
     </row>
-    <row r="594" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594" s="20">
         <v>593</v>
       </c>
@@ -49291,7 +49307,7 @@
       </c>
       <c r="T594" s="20"/>
     </row>
-    <row r="595" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A595" s="20">
         <v>594</v>
       </c>
@@ -49343,7 +49359,7 @@
       </c>
       <c r="T595" s="20"/>
     </row>
-    <row r="596" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A596" s="20">
         <v>595</v>
       </c>
@@ -49397,7 +49413,7 @@
       </c>
       <c r="T596" s="20"/>
     </row>
-    <row r="597" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A597" s="20">
         <v>596</v>
       </c>
@@ -49449,7 +49465,7 @@
       </c>
       <c r="T597" s="20"/>
     </row>
-    <row r="598" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A598" s="20">
         <v>597</v>
       </c>
@@ -49501,7 +49517,7 @@
       </c>
       <c r="T598" s="20"/>
     </row>
-    <row r="599" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A599" s="20">
         <v>598</v>
       </c>
@@ -49551,7 +49567,7 @@
       </c>
       <c r="T599" s="20"/>
     </row>
-    <row r="600" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A600" s="20">
         <v>599</v>
       </c>
@@ -49601,7 +49617,7 @@
       </c>
       <c r="T600" s="20"/>
     </row>
-    <row r="601" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A601" s="20">
         <v>600</v>
       </c>
@@ -49651,7 +49667,7 @@
       </c>
       <c r="T601" s="20"/>
     </row>
-    <row r="602" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A602" s="20">
         <v>601</v>
       </c>
@@ -49697,7 +49713,7 @@
       </c>
       <c r="T602" s="20"/>
     </row>
-    <row r="603" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A603" s="20">
         <v>602</v>
       </c>
@@ -49749,7 +49765,7 @@
       </c>
       <c r="T603" s="20"/>
     </row>
-    <row r="604" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A604" s="20">
         <v>603</v>
       </c>
@@ -49801,7 +49817,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="605" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A605" s="20">
         <v>604</v>
       </c>
@@ -49851,7 +49867,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="606" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A606" s="20">
         <v>605</v>
       </c>
@@ -49899,7 +49915,7 @@
       </c>
       <c r="T606" s="20"/>
     </row>
-    <row r="607" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A607" s="20">
         <v>606</v>
       </c>
@@ -49949,7 +49965,7 @@
       </c>
       <c r="T607" s="20"/>
     </row>
-    <row r="608" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A608" s="20">
         <v>607</v>
       </c>
@@ -49996,7 +50012,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="609" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A609" s="20">
         <v>608</v>
       </c>
@@ -50045,7 +50061,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="610" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A610" s="20">
         <v>609</v>
       </c>
@@ -50094,7 +50110,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="611" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A611" s="20">
         <v>610</v>
       </c>
@@ -50143,7 +50159,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="612" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A612" s="20">
         <v>611</v>
       </c>
@@ -50192,7 +50208,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="613" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A613" s="20">
         <v>612</v>
       </c>
@@ -50241,7 +50257,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="614" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A614" s="20">
         <v>613</v>
       </c>
@@ -50288,7 +50304,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="615" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A615" s="20">
         <v>614</v>
       </c>
@@ -50335,7 +50351,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="616" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A616" s="20">
         <v>615</v>
       </c>
@@ -50386,7 +50402,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="617" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A617" s="20">
         <v>616</v>
       </c>
@@ -50433,7 +50449,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="618" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A618" s="20">
         <v>617</v>
       </c>
@@ -50482,7 +50498,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="619" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A619" s="20">
         <v>618</v>
       </c>
@@ -50533,7 +50549,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="620" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A620" s="20">
         <v>619</v>
       </c>
@@ -50586,7 +50602,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="621" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A621" s="20">
         <v>620</v>
       </c>
@@ -50635,7 +50651,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="622" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A622" s="20">
         <v>621</v>
       </c>
@@ -50686,7 +50702,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="623" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A623" s="20">
         <v>622</v>
       </c>
@@ -50725,7 +50741,7 @@
       <c r="R623" s="20"/>
       <c r="S623" s="20"/>
     </row>
-    <row r="624" spans="1:19" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A624" s="20">
         <v>623</v>
       </c>
@@ -50776,7 +50792,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="625" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="20">
         <v>624</v>
       </c>
@@ -50827,7 +50843,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="626" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="20">
         <v>625</v>
       </c>
@@ -50878,7 +50894,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="627" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="20">
         <v>626</v>
       </c>
@@ -50929,7 +50945,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="628" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="20">
         <v>627</v>
       </c>
@@ -50980,7 +50996,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="629" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="20">
         <v>628</v>
       </c>
@@ -51031,7 +51047,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="630" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="20">
         <v>629</v>
       </c>
@@ -51084,7 +51100,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="631" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A631" s="20">
         <v>630</v>
       </c>
@@ -51133,7 +51149,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="632" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A632" s="20">
         <v>631</v>
       </c>
@@ -51182,7 +51198,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="633" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A633" s="20">
         <v>632</v>
       </c>
@@ -51233,7 +51249,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="634" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A634" s="20">
         <v>633</v>
       </c>
@@ -51280,7 +51296,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="635" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A635" s="20">
         <v>634</v>
       </c>
@@ -51327,7 +51343,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="636" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A636" s="20">
         <v>635</v>
       </c>
@@ -51374,7 +51390,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="637" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A637" s="20">
         <v>636</v>
       </c>
@@ -51425,7 +51441,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="638" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A638" s="20">
         <v>637</v>
       </c>
@@ -51478,7 +51494,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="639" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A639" s="20">
         <v>638</v>
       </c>
@@ -51525,7 +51541,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="640" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A640" s="20">
         <v>639</v>
       </c>
@@ -51575,7 +51591,7 @@
       </c>
       <c r="T640" s="20"/>
     </row>
-    <row r="641" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A641" s="20">
         <v>640</v>
       </c>
@@ -51625,7 +51641,7 @@
       </c>
       <c r="T641" s="20"/>
     </row>
-    <row r="642" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A642" s="20">
         <v>641</v>
       </c>
@@ -51677,7 +51693,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="643" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A643" s="20">
         <v>642</v>
       </c>
@@ -51725,7 +51741,7 @@
       </c>
       <c r="T643" s="20"/>
     </row>
-    <row r="644" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A644" s="20">
         <v>643</v>
       </c>
@@ -51773,7 +51789,7 @@
       </c>
       <c r="T644" s="20"/>
     </row>
-    <row r="645" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A645" s="20">
         <v>644</v>
       </c>
@@ -51823,7 +51839,7 @@
       </c>
       <c r="T645" s="20"/>
     </row>
-    <row r="646" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A646" s="20">
         <v>645</v>
       </c>
@@ -51873,7 +51889,7 @@
       </c>
       <c r="T646" s="20"/>
     </row>
-    <row r="647" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A647" s="20">
         <v>646</v>
       </c>
@@ -51923,7 +51939,7 @@
       </c>
       <c r="T647" s="20"/>
     </row>
-    <row r="648" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A648" s="20">
         <v>647</v>
       </c>
@@ -51975,7 +51991,7 @@
       </c>
       <c r="T648" s="20"/>
     </row>
-    <row r="649" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A649" s="20">
         <v>648</v>
       </c>
@@ -52027,7 +52043,7 @@
       </c>
       <c r="T649" s="20"/>
     </row>
-    <row r="650" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A650" s="20">
         <v>649</v>
       </c>
@@ -52077,7 +52093,7 @@
       </c>
       <c r="T650" s="20"/>
     </row>
-    <row r="651" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A651" s="20">
         <v>650</v>
       </c>
@@ -52129,7 +52145,7 @@
       </c>
       <c r="T651" s="20"/>
     </row>
-    <row r="652" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A652" s="20">
         <v>651</v>
       </c>
@@ -52183,7 +52199,7 @@
       </c>
       <c r="T652" s="20"/>
     </row>
-    <row r="653" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A653" s="20">
         <v>652</v>
       </c>
@@ -52235,7 +52251,7 @@
       </c>
       <c r="T653" s="20"/>
     </row>
-    <row r="654" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A654" s="20">
         <v>653</v>
       </c>
@@ -52291,7 +52307,7 @@
       </c>
       <c r="T654" s="20"/>
     </row>
-    <row r="655" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A655" s="20">
         <v>654</v>
       </c>
@@ -52341,7 +52357,7 @@
       </c>
       <c r="T655" s="20"/>
     </row>
-    <row r="656" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A656" s="20">
         <v>655</v>
       </c>
@@ -52393,7 +52409,7 @@
       </c>
       <c r="T656" s="20"/>
     </row>
-    <row r="657" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A657" s="20">
         <v>656</v>
       </c>
@@ -52447,7 +52463,7 @@
       </c>
       <c r="T657" s="20"/>
     </row>
-    <row r="658" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A658" s="20">
         <v>657</v>
       </c>
@@ -52499,7 +52515,7 @@
       </c>
       <c r="T658" s="20"/>
     </row>
-    <row r="659" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A659" s="20">
         <v>658</v>
       </c>
@@ -52551,7 +52567,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="660" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A660" s="20">
         <v>659</v>
       </c>
@@ -52601,7 +52617,7 @@
       </c>
       <c r="T660" s="20"/>
     </row>
-    <row r="661" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A661" s="20">
         <v>660</v>
       </c>
@@ -52651,7 +52667,7 @@
       </c>
       <c r="T661" s="20"/>
     </row>
-    <row r="662" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A662" s="20">
         <v>661</v>
       </c>
@@ -52701,7 +52717,7 @@
       </c>
       <c r="T662" s="20"/>
     </row>
-    <row r="663" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A663" s="20">
         <v>662</v>
       </c>
@@ -52751,7 +52767,7 @@
       </c>
       <c r="T663" s="20"/>
     </row>
-    <row r="664" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A664" s="20">
         <v>663</v>
       </c>
@@ -52801,7 +52817,7 @@
       </c>
       <c r="T664" s="20"/>
     </row>
-    <row r="665" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A665" s="20">
         <v>664</v>
       </c>
@@ -52851,7 +52867,7 @@
       </c>
       <c r="T665" s="20"/>
     </row>
-    <row r="666" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A666" s="20">
         <v>665</v>
       </c>
@@ -52903,7 +52919,7 @@
       </c>
       <c r="T666" s="20"/>
     </row>
-    <row r="667" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A667" s="20">
         <v>666</v>
       </c>
@@ -52953,7 +52969,7 @@
       </c>
       <c r="T667" s="20"/>
     </row>
-    <row r="668" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A668" s="20">
         <v>667</v>
       </c>
@@ -53007,7 +53023,7 @@
       </c>
       <c r="T668" s="20"/>
     </row>
-    <row r="669" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A669" s="20">
         <v>668</v>
       </c>
@@ -53055,7 +53071,7 @@
       </c>
       <c r="T669" s="20"/>
     </row>
-    <row r="670" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A670" s="20">
         <v>669</v>
       </c>
@@ -53103,7 +53119,7 @@
       </c>
       <c r="T670" s="20"/>
     </row>
-    <row r="671" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A671" s="20">
         <v>670</v>
       </c>
@@ -53153,7 +53169,7 @@
       </c>
       <c r="T671" s="20"/>
     </row>
-    <row r="672" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A672" s="20">
         <v>671</v>
       </c>
@@ -53203,7 +53219,7 @@
       </c>
       <c r="T672" s="20"/>
     </row>
-    <row r="673" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A673" s="20">
         <v>672</v>
       </c>
@@ -53255,7 +53271,7 @@
       </c>
       <c r="T673" s="20"/>
     </row>
-    <row r="674" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A674" s="20">
         <v>673</v>
       </c>
@@ -53305,7 +53321,7 @@
       </c>
       <c r="T674" s="20"/>
     </row>
-    <row r="675" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A675" s="20">
         <v>674</v>
       </c>
@@ -53355,7 +53371,7 @@
       </c>
       <c r="T675" s="20"/>
     </row>
-    <row r="676" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A676" s="20">
         <v>675</v>
       </c>
@@ -53405,7 +53421,7 @@
       </c>
       <c r="T676" s="20"/>
     </row>
-    <row r="677" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A677" s="20">
         <v>676</v>
       </c>
@@ -53455,7 +53471,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="678" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A678" s="20">
         <v>677</v>
       </c>
@@ -53507,7 +53523,7 @@
       </c>
       <c r="T678" s="20"/>
     </row>
-    <row r="679" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A679" s="20">
         <v>678</v>
       </c>
@@ -53557,7 +53573,7 @@
       </c>
       <c r="T679" s="20"/>
     </row>
-    <row r="680" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A680" s="20">
         <v>679</v>
       </c>
@@ -53609,7 +53625,7 @@
       </c>
       <c r="T680" s="20"/>
     </row>
-    <row r="681" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A681" s="20">
         <v>680</v>
       </c>
@@ -53659,7 +53675,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="682" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A682" s="20">
         <v>681</v>
       </c>
@@ -53709,7 +53725,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="683" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A683" s="20">
         <v>682</v>
       </c>
@@ -53759,7 +53775,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="684" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A684" s="20">
         <v>683</v>
       </c>
@@ -53811,7 +53827,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="685" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A685" s="20">
         <v>684</v>
       </c>
@@ -53857,7 +53873,7 @@
       </c>
       <c r="T685" s="20"/>
     </row>
-    <row r="686" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A686" s="20">
         <v>685</v>
       </c>
@@ -53909,7 +53925,7 @@
       </c>
       <c r="T686" s="20"/>
     </row>
-    <row r="687" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A687" s="20">
         <v>686</v>
       </c>
@@ -53961,7 +53977,7 @@
       </c>
       <c r="T687" s="20"/>
     </row>
-    <row r="688" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A688" s="20">
         <v>687</v>
       </c>
@@ -54011,7 +54027,7 @@
       </c>
       <c r="T688" s="20"/>
     </row>
-    <row r="689" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A689" s="20">
         <v>688</v>
       </c>
@@ -54061,7 +54077,7 @@
       </c>
       <c r="T689" s="20"/>
     </row>
-    <row r="690" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A690" s="20">
         <v>689</v>
       </c>
@@ -54107,7 +54123,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="691" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A691" s="20">
         <v>690</v>
       </c>
